--- a/DATA/CORRECTED/Validação e-redes.xlsx
+++ b/DATA/CORRECTED/Validação e-redes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -577,7 +577,9 @@
       <c r="C10" t="n">
         <v>235.954</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>235.928</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -589,7 +591,9 @@
       <c r="C11" t="n">
         <v>233.638</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>233.669</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -601,7 +605,9 @@
       <c r="C12" t="n">
         <v>133.172</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>133.202</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -613,7 +619,9 @@
       <c r="C13" t="n">
         <v>130.316</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>130.317</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -625,7 +633,9 @@
       <c r="C14" t="n">
         <v>123.307</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>123.292</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -637,7 +647,9 @@
       <c r="C15" t="n">
         <v>199.926</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>199.83</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -649,7 +661,9 @@
       <c r="C16" t="n">
         <v>160.779</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>160.84</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -661,7 +675,9 @@
       <c r="C17" t="n">
         <v>192.183</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>192.147</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -673,7 +689,9 @@
       <c r="C18" t="n">
         <v>228.193</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>228.211</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -685,7 +703,9 @@
       <c r="C19" t="n">
         <v>197.156</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>197.144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
